--- a/SEBASTIAN_BEREZA.xlsx
+++ b/SEBASTIAN_BEREZA.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="59">
   <si>
     <t xml:space="preserve">Delivery</t>
   </si>
@@ -47,6 +47,9 @@
     <t xml:space="preserve">Breed</t>
   </si>
   <si>
+    <t xml:space="preserve">3bMonday</t>
+  </si>
+  <si>
     <t xml:space="preserve">2bMonday</t>
   </si>
   <si>
@@ -104,19 +107,16 @@
     <t xml:space="preserve">SR 1340 2551 NW EXUM RD, ASH, NC</t>
   </si>
   <si>
-    <t xml:space="preserve">SHP-South</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BEREZA, SEBASTIAN R.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">910-271-2344</t>
+    <t xml:space="preserve">HP-East Commercial</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BEREZA, SEBASTIAN R</t>
   </si>
   <si>
     <t xml:space="preserve">SPG240</t>
   </si>
   <si>
-    <t xml:space="preserve">0.4055555555555555</t>
+    <t xml:space="preserve">0.25277777777777777</t>
   </si>
   <si>
     <t xml:space="preserve">CORNERSTONE FARMS INC 32431</t>
@@ -125,7 +125,28 @@
     <t xml:space="preserve">HWY 211, 265 CORNERSTONE FARM LN, BOLTON, NC</t>
   </si>
   <si>
-    <t xml:space="preserve">0.28263888888888888</t>
+    <t xml:space="preserve">0.23263888888888887</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Farm 37281/BOC 28</t>
+  </si>
+  <si>
+    <t xml:space="preserve">910-645-4887</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3603 NC HWY 211 E, CLARKTON, NC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.29305555555555557</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Farm 3730</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SR 1710, 2657 ELKTON RD, CLARKTON, NC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.20972222222222223</t>
   </si>
   <si>
     <t xml:space="preserve">MWF</t>
@@ -140,16 +161,7 @@
     <t xml:space="preserve">SR 1332, 4534 PARKER MEMORIAL RD, ROSEBORO, NC</t>
   </si>
   <si>
-    <t xml:space="preserve">11:00AM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">OAK SPRINGS FARMS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1141 ALLEN PRIEST RD, COUNCIL, NC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.28958333333333336</t>
+    <t xml:space="preserve">0.20138888888888887</t>
   </si>
   <si>
     <t xml:space="preserve">SAMPSON SOW FARM</t>
@@ -161,16 +173,22 @@
     <t xml:space="preserve">SR 1406 1215 JOSH SESSOMS RD, ROSEBORO, NC</t>
   </si>
   <si>
-    <t xml:space="preserve">11:15AM</t>
+    <t xml:space="preserve">0.21875</t>
   </si>
   <si>
     <t xml:space="preserve">TURNBULL FARMS INC</t>
   </si>
   <si>
+    <t xml:space="preserve">910-645-4667</t>
+  </si>
+  <si>
     <t xml:space="preserve">90 AVENIDA LOPEZ, WHITE OAK, NC</t>
   </si>
   <si>
     <t xml:space="preserve">0.22013888888888888</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CAIN</t>
   </si>
 </sst>
 </file>
@@ -507,7 +525,7 @@
   <sheetViews>
     <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="1"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
   <cols>
     <col min="1" max="1" width="8.71" hidden="0" customWidth="1"/>
     <col min="2" max="2" width="10.71" hidden="0" customWidth="1"/>
@@ -516,25 +534,26 @@
     <col min="5" max="5" width="17.71" hidden="0" customWidth="1"/>
     <col min="6" max="6" width="12.71" hidden="0" customWidth="1"/>
     <col min="7" max="7" width="46.71" hidden="0" customWidth="1"/>
-    <col min="8" max="8" width="12.71" hidden="0" customWidth="1"/>
-    <col min="9" max="9" width="20.71" hidden="0" customWidth="1"/>
+    <col min="8" max="8" width="18.71" hidden="0" customWidth="1"/>
+    <col min="9" max="9" width="19.71" hidden="0" customWidth="1"/>
     <col min="10" max="10" width="16.71" hidden="0" customWidth="1"/>
     <col min="11" max="11" width="6.71" hidden="0" customWidth="1"/>
     <col min="12" max="12" width="8.71" hidden="0" customWidth="1"/>
-    <col min="13" max="13" width="9.71" hidden="0" customWidth="1"/>
+    <col min="13" max="13" width="8.71" hidden="0" customWidth="1"/>
     <col min="14" max="14" width="9.71" hidden="0" customWidth="1"/>
-    <col min="15" max="15" width="11.71" hidden="0" customWidth="1"/>
+    <col min="15" max="15" width="9.71" hidden="0" customWidth="1"/>
     <col min="16" max="16" width="11.71" hidden="0" customWidth="1"/>
-    <col min="17" max="17" width="10.71" hidden="0" customWidth="1"/>
+    <col min="17" max="17" width="11.71" hidden="0" customWidth="1"/>
     <col min="18" max="18" width="10.71" hidden="0" customWidth="1"/>
-    <col min="19" max="19" width="8.71" hidden="0" customWidth="1"/>
+    <col min="19" max="19" width="10.71" hidden="0" customWidth="1"/>
     <col min="20" max="20" width="8.71" hidden="0" customWidth="1"/>
-    <col min="21" max="21" width="10.71" hidden="0" customWidth="1"/>
+    <col min="21" max="21" width="8.71" hidden="0" customWidth="1"/>
     <col min="22" max="22" width="10.71" hidden="0" customWidth="1"/>
-    <col min="23" max="23" width="5.71" hidden="0" customWidth="1"/>
-    <col min="24" max="24" width="11.71" hidden="0" customWidth="1"/>
-    <col min="25" max="25" width="19.71" hidden="0" customWidth="1"/>
-    <col min="26" max="26" width="8.71" hidden="0" customWidth="1"/>
+    <col min="23" max="23" width="10.71" hidden="0" customWidth="1"/>
+    <col min="24" max="24" width="5.71" hidden="0" customWidth="1"/>
+    <col min="25" max="25" width="11.71" hidden="0" customWidth="1"/>
+    <col min="26" max="26" width="19.71" hidden="0" customWidth="1"/>
+    <col min="27" max="27" width="8.71" hidden="0" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -616,76 +635,78 @@
       <c r="Z1" s="1" t="s">
         <v>25</v>
       </c>
+      <c r="AA1" s="1" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B2" t="n">
         <v>7081</v>
       </c>
       <c r="C2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E2" t="n">
         <v>6239</v>
       </c>
       <c r="F2"/>
       <c r="G2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="I2" t="s">
-        <v>31</v>
-      </c>
-      <c r="J2" t="s">
         <v>32</v>
       </c>
+      <c r="J2"/>
       <c r="K2" t="s">
         <v>33</v>
       </c>
       <c r="L2"/>
       <c r="M2"/>
-      <c r="N2" t="n">
-        <v>50</v>
-      </c>
-      <c r="O2"/>
+      <c r="N2"/>
+      <c r="O2" t="n">
+        <v>70</v>
+      </c>
       <c r="P2"/>
       <c r="Q2"/>
-      <c r="R2" t="n">
-        <v>150</v>
-      </c>
-      <c r="S2"/>
+      <c r="R2"/>
+      <c r="S2" t="n">
+        <v>200</v>
+      </c>
       <c r="T2"/>
       <c r="U2"/>
-      <c r="V2" t="n">
-        <v>230</v>
-      </c>
+      <c r="V2"/>
       <c r="W2" t="n">
-        <v>430</v>
+        <v>165</v>
       </c>
       <c r="X2" t="n">
-        <v>2.07729468599034</v>
-      </c>
-      <c r="Y2" t="s">
+        <v>435</v>
+      </c>
+      <c r="Y2" t="n">
+        <v>2.11165048543689</v>
+      </c>
+      <c r="Z2" t="s">
         <v>34</v>
       </c>
-      <c r="Z2"/>
+      <c r="AA2"/>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B3" t="n">
         <v>7081</v>
       </c>
       <c r="C3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D3" t="s">
         <v>35</v>
@@ -698,182 +719,179 @@
         <v>36</v>
       </c>
       <c r="H3" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="I3" t="s">
-        <v>31</v>
-      </c>
-      <c r="J3" t="s">
         <v>32</v>
       </c>
+      <c r="J3"/>
       <c r="K3" t="s">
         <v>33</v>
       </c>
       <c r="L3"/>
       <c r="M3"/>
-      <c r="N3" t="n">
-        <v>123</v>
-      </c>
-      <c r="O3"/>
+      <c r="N3"/>
+      <c r="O3" t="n">
+        <v>150</v>
+      </c>
       <c r="P3"/>
       <c r="Q3"/>
-      <c r="R3" t="n">
-        <v>40</v>
-      </c>
-      <c r="S3"/>
+      <c r="R3"/>
+      <c r="S3" t="n">
+        <v>28</v>
+      </c>
       <c r="T3"/>
       <c r="U3"/>
-      <c r="V3" t="n">
-        <v>85</v>
-      </c>
+      <c r="V3"/>
       <c r="W3" t="n">
-        <v>248</v>
+        <v>65</v>
       </c>
       <c r="X3" t="n">
-        <v>1.96825396825397</v>
-      </c>
-      <c r="Y3" t="s">
+        <v>243</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>2.79310344827586</v>
+      </c>
+      <c r="Z3" t="s">
         <v>37</v>
       </c>
-      <c r="Z3"/>
+      <c r="AA3"/>
     </row>
     <row r="4">
       <c r="A4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B4" t="n">
+        <v>7082</v>
+      </c>
+      <c r="C4" t="s">
+        <v>28</v>
+      </c>
+      <c r="D4" t="s">
         <v>38</v>
       </c>
-      <c r="B4" t="n">
-        <v>7092</v>
-      </c>
-      <c r="C4" t="s">
-        <v>27</v>
-      </c>
-      <c r="D4" t="s">
+      <c r="E4" t="n">
+        <v>37281</v>
+      </c>
+      <c r="F4" t="s">
         <v>39</v>
       </c>
-      <c r="E4" t="n">
-        <v>28931</v>
-      </c>
-      <c r="F4" t="s">
+      <c r="G4" t="s">
         <v>40</v>
       </c>
-      <c r="G4" t="s">
-        <v>41</v>
-      </c>
       <c r="H4" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="I4" t="s">
-        <v>31</v>
-      </c>
-      <c r="J4" t="s">
         <v>32</v>
       </c>
+      <c r="J4"/>
       <c r="K4" t="s">
         <v>33</v>
       </c>
-      <c r="L4" t="n">
-        <v>88</v>
-      </c>
+      <c r="L4"/>
       <c r="M4"/>
       <c r="N4"/>
-      <c r="O4"/>
-      <c r="P4" t="n">
-        <v>18</v>
-      </c>
+      <c r="O4" t="n">
+        <v>160</v>
+      </c>
+      <c r="P4"/>
       <c r="Q4"/>
       <c r="R4"/>
-      <c r="S4"/>
-      <c r="T4" t="n">
-        <v>33</v>
-      </c>
+      <c r="S4" t="n">
+        <v>80</v>
+      </c>
+      <c r="T4"/>
       <c r="U4"/>
       <c r="V4"/>
       <c r="W4" t="n">
-        <v>139</v>
+        <v>160</v>
       </c>
       <c r="X4" t="n">
-        <v>1.82894736842105</v>
-      </c>
-      <c r="Y4" t="s">
-        <v>42</v>
-      </c>
-      <c r="Z4"/>
+        <v>400</v>
+      </c>
+      <c r="Y4" t="n">
+        <v>2.04081632653061</v>
+      </c>
+      <c r="Z4" t="s">
+        <v>41</v>
+      </c>
+      <c r="AA4"/>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B5" t="n">
         <v>7082</v>
       </c>
       <c r="C5" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E5" t="n">
-        <v>6213</v>
+        <v>37301</v>
       </c>
       <c r="F5"/>
       <c r="G5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H5" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="I5" t="s">
-        <v>31</v>
-      </c>
-      <c r="J5" t="s">
         <v>32</v>
       </c>
+      <c r="J5"/>
       <c r="K5" t="s">
         <v>33</v>
       </c>
       <c r="L5"/>
       <c r="M5"/>
-      <c r="N5" t="n">
-        <v>50</v>
-      </c>
-      <c r="O5"/>
+      <c r="N5"/>
+      <c r="O5" t="n">
+        <v>124</v>
+      </c>
       <c r="P5"/>
       <c r="Q5"/>
-      <c r="R5" t="n">
-        <v>20</v>
-      </c>
-      <c r="S5"/>
+      <c r="R5"/>
+      <c r="S5" t="n">
+        <v>40</v>
+      </c>
       <c r="T5"/>
       <c r="U5"/>
-      <c r="V5" t="n">
-        <v>110</v>
-      </c>
+      <c r="V5"/>
       <c r="W5" t="n">
-        <v>180</v>
+        <v>70</v>
       </c>
       <c r="X5" t="n">
-        <v>2.09302325581395</v>
-      </c>
-      <c r="Y5" t="s">
-        <v>45</v>
-      </c>
-      <c r="Z5"/>
+        <v>234</v>
+      </c>
+      <c r="Y5" t="n">
+        <v>3.03896103896104</v>
+      </c>
+      <c r="Z5" t="s">
+        <v>44</v>
+      </c>
+      <c r="AA5"/>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="B6" t="n">
         <v>7094</v>
       </c>
       <c r="C6" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D6" t="s">
         <v>46</v>
       </c>
       <c r="E6" t="n">
-        <v>4100</v>
+        <v>28931</v>
       </c>
       <c r="F6" t="s">
         <v>47</v>
@@ -882,104 +900,218 @@
         <v>48</v>
       </c>
       <c r="H6" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="I6" t="s">
-        <v>31</v>
-      </c>
-      <c r="J6" t="s">
         <v>32</v>
       </c>
+      <c r="J6"/>
       <c r="K6" t="s">
         <v>33</v>
       </c>
-      <c r="L6" t="n">
-        <v>75</v>
-      </c>
-      <c r="M6"/>
+      <c r="L6"/>
+      <c r="M6" t="n">
+        <v>90</v>
+      </c>
       <c r="N6"/>
       <c r="O6"/>
-      <c r="P6" t="n">
-        <v>25</v>
-      </c>
-      <c r="Q6"/>
+      <c r="P6"/>
+      <c r="Q6" t="n">
+        <v>14</v>
+      </c>
       <c r="R6"/>
       <c r="S6"/>
-      <c r="T6" t="n">
+      <c r="T6"/>
+      <c r="U6" t="n">
         <v>20</v>
       </c>
-      <c r="U6"/>
       <c r="V6"/>
-      <c r="W6" t="n">
-        <v>120</v>
-      </c>
+      <c r="W6"/>
       <c r="X6" t="n">
-        <v>2.03389830508475</v>
-      </c>
-      <c r="Y6" t="s">
+        <v>124</v>
+      </c>
+      <c r="Y6" t="n">
+        <v>2.10169491525424</v>
+      </c>
+      <c r="Z6" t="s">
         <v>49</v>
       </c>
-      <c r="Z6"/>
+      <c r="AA6"/>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>26</v>
+        <v>45</v>
       </c>
       <c r="B7" t="n">
-        <v>7082</v>
+        <v>7092</v>
       </c>
       <c r="C7" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D7" t="s">
         <v>50</v>
       </c>
       <c r="E7" t="n">
-        <v>38441</v>
-      </c>
-      <c r="F7"/>
+        <v>4100</v>
+      </c>
+      <c r="F7" t="s">
+        <v>51</v>
+      </c>
       <c r="G7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="H7" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="I7" t="s">
-        <v>31</v>
-      </c>
-      <c r="J7" t="s">
         <v>32</v>
       </c>
+      <c r="J7"/>
       <c r="K7" t="s">
         <v>33</v>
       </c>
       <c r="L7"/>
-      <c r="M7"/>
-      <c r="N7" t="n">
-        <v>180</v>
-      </c>
+      <c r="M7" t="n">
+        <v>70</v>
+      </c>
+      <c r="N7"/>
       <c r="O7"/>
       <c r="P7"/>
-      <c r="Q7"/>
-      <c r="R7" t="n">
-        <v>18</v>
-      </c>
+      <c r="Q7" t="n">
+        <v>16</v>
+      </c>
+      <c r="R7"/>
       <c r="S7"/>
       <c r="T7"/>
-      <c r="U7"/>
-      <c r="V7" t="n">
+      <c r="U7" t="n">
+        <v>30</v>
+      </c>
+      <c r="V7"/>
+      <c r="W7"/>
+      <c r="X7" t="n">
+        <v>116</v>
+      </c>
+      <c r="Y7" t="n">
+        <v>2</v>
+      </c>
+      <c r="Z7" t="s">
+        <v>53</v>
+      </c>
+      <c r="AA7"/>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>27</v>
+      </c>
+      <c r="B8" t="n">
+        <v>7082</v>
+      </c>
+      <c r="C8" t="s">
+        <v>28</v>
+      </c>
+      <c r="D8" t="s">
+        <v>54</v>
+      </c>
+      <c r="E8" t="n">
+        <v>38441</v>
+      </c>
+      <c r="F8" t="s">
+        <v>55</v>
+      </c>
+      <c r="G8" t="s">
+        <v>56</v>
+      </c>
+      <c r="H8" t="s">
+        <v>31</v>
+      </c>
+      <c r="I8" t="s">
+        <v>32</v>
+      </c>
+      <c r="J8"/>
+      <c r="K8" t="s">
+        <v>33</v>
+      </c>
+      <c r="L8"/>
+      <c r="M8"/>
+      <c r="N8"/>
+      <c r="O8" t="n">
+        <v>140</v>
+      </c>
+      <c r="P8"/>
+      <c r="Q8"/>
+      <c r="R8"/>
+      <c r="S8" t="n">
+        <v>45</v>
+      </c>
+      <c r="T8"/>
+      <c r="U8"/>
+      <c r="V8"/>
+      <c r="W8" t="n">
         <v>50</v>
       </c>
-      <c r="W7" t="n">
-        <v>248</v>
-      </c>
-      <c r="X7" t="n">
-        <v>2.15652173913043</v>
-      </c>
-      <c r="Y7" t="s">
-        <v>52</v>
-      </c>
-      <c r="Z7"/>
+      <c r="X8" t="n">
+        <v>235</v>
+      </c>
+      <c r="Y8" t="n">
+        <v>1.79389312977099</v>
+      </c>
+      <c r="Z8" t="s">
+        <v>57</v>
+      </c>
+      <c r="AA8"/>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>45</v>
+      </c>
+      <c r="B9" t="n">
+        <v>7092</v>
+      </c>
+      <c r="C9" t="s">
+        <v>28</v>
+      </c>
+      <c r="D9" t="s">
+        <v>58</v>
+      </c>
+      <c r="E9" t="n">
+        <v>6257</v>
+      </c>
+      <c r="F9"/>
+      <c r="G9"/>
+      <c r="H9" t="s">
+        <v>31</v>
+      </c>
+      <c r="I9" t="s">
+        <v>32</v>
+      </c>
+      <c r="J9"/>
+      <c r="K9" t="s">
+        <v>33</v>
+      </c>
+      <c r="L9"/>
+      <c r="M9" t="n">
+        <v>30</v>
+      </c>
+      <c r="N9"/>
+      <c r="O9"/>
+      <c r="P9"/>
+      <c r="Q9" t="n">
+        <v>30</v>
+      </c>
+      <c r="R9"/>
+      <c r="S9"/>
+      <c r="T9"/>
+      <c r="U9" t="n">
+        <v>30</v>
+      </c>
+      <c r="V9"/>
+      <c r="W9"/>
+      <c r="X9" t="n">
+        <v>240</v>
+      </c>
+      <c r="Y9"/>
+      <c r="Z9"/>
+      <c r="AA9"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
